--- a/app/_resources/default_krbiz_delivery_format.xlsx
+++ b/app/_resources/default_krbiz_delivery_format.xlsx
@@ -55,7 +55,7 @@
     <t>{{long_address}}</t>
   </si>
   <si>
-    <t>{{option_info}}</t>
+    <t>{{option_info}}{% if additional_option != '' %}{% endif %}{{additional_option}}</t>
   </si>
   <si>
     <t>{{product_counts}}</t>
@@ -493,7 +493,7 @@
     <col min="2" max="2" style="8" width="19.719285714285714" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="8" width="28.005" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="9" width="24.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="15.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="73.29071428571429" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="8" width="18.576428571428572" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="8" width="13.005" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="8" width="22.576428571428572" customWidth="1" bestFit="1"/>
@@ -529,7 +529,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="22.5">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>

--- a/app/_resources/default_krbiz_delivery_format.xlsx
+++ b/app/_resources/default_krbiz_delivery_format.xlsx
@@ -55,7 +55,8 @@
     <t>{{long_address}}</t>
   </si>
   <si>
-    <t>{{option_info}}{% if additional_option != '' %}{% endif %}{{additional_option}}</t>
+    <t>{{option_info}}{% if additional_option != '' %}
+{% endif %}{{additional_option}}</t>
   </si>
   <si>
     <t>{{product_counts}}</t>

--- a/app/_resources/default_krbiz_delivery_format.xlsx
+++ b/app/_resources/default_krbiz_delivery_format.xlsx
@@ -56,7 +56,7 @@
   </si>
   <si>
     <t>{{option_info}}{% if additional_option != '' %}
-{% endif %}{{additional_option}}</t>
++ {% endif %}{{additional_option}}</t>
   </si>
   <si>
     <t>{{product_counts}}</t>
@@ -530,7 +530,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="22.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="57.75">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>

--- a/app/_resources/default_krbiz_delivery_format.xlsx
+++ b/app/_resources/default_krbiz_delivery_format.xlsx
@@ -56,7 +56,7 @@
   </si>
   <si>
     <t>{{option_info}}{% if additional_option != '' %}
-+ {% endif %}{{additional_option}}</t>
++++ {% endif %}{{additional_option}}</t>
   </si>
   <si>
     <t>{{product_counts}}</t>
